--- a/xlsx/秘鲁_intext.xlsx
+++ b/xlsx/秘鲁_intext.xlsx
@@ -29,7 +29,7 @@
     <t>西班牙語</t>
   </si>
   <si>
-    <t>政策_政策_美國_秘鲁</t>
+    <t>体育运动_体育运动_伊朗_秘鲁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%87%E6%A5%9A%E7%93%A6%E8%AA%9E</t>
@@ -4625,7 +4625,7 @@
         <v>100</v>
       </c>
       <c r="G51" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H51" t="s">
         <v>4</v>
@@ -4857,7 +4857,7 @@
         <v>116</v>
       </c>
       <c r="G59" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H59" t="s">
         <v>4</v>
@@ -4886,7 +4886,7 @@
         <v>118</v>
       </c>
       <c r="G60" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H60" t="s">
         <v>4</v>
